--- a/base/matrix_y.xlsx
+++ b/base/matrix_y.xlsx
@@ -20,9 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
-  <si>
-    <t>-17,8571428571429i</t>
-  </si>
   <si>
     <t>134,228187919463-93,9597315436241i</t>
   </si>
@@ -117,7 +114,10 @@
     <t>0,00936830835117773-0,00653911945401233i</t>
   </si>
   <si>
-    <t>-17,857i</t>
+    <t>0-17,8571428571429i</t>
+  </si>
+  <si>
+    <t>0-17,857i</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC51" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="BX76" sqref="BX76"/>
     </sheetView>
   </sheetViews>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -6972,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="AC29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="AD30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="AE31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="AF32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG32">
         <v>0</v>
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="AG33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH33">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="AH34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -8370,7 +8370,7 @@
         <v>0</v>
       </c>
       <c r="AI35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ35">
         <v>0</v>
@@ -8603,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="AJ36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK36">
         <v>0</v>
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="AK37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL37">
         <v>0</v>
@@ -9069,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM38">
         <v>0</v>
@@ -9302,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="AM39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN39">
         <v>0</v>
@@ -9535,7 +9535,7 @@
         <v>0</v>
       </c>
       <c r="AN40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO40">
         <v>0</v>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="AO41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP41">
         <v>0</v>
@@ -10001,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ42">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="AQ43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR43">
         <v>0</v>
@@ -10467,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="AR44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS44">
         <v>0</v>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT45">
         <v>0</v>
@@ -10933,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="AT46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="AU47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV47">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="AV48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW48">
         <v>0</v>
@@ -11632,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="AW49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX49">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="AX50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY50">
         <v>0</v>
@@ -12098,7 +12098,7 @@
         <v>0</v>
       </c>
       <c r="AY51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ51">
         <v>0</v>
@@ -12331,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="AZ52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA52">
         <v>0</v>
@@ -12564,7 +12564,7 @@
         <v>0</v>
       </c>
       <c r="BA53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB53">
         <v>0</v>
@@ -12797,7 +12797,7 @@
         <v>0</v>
       </c>
       <c r="BB54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC54">
         <v>0</v>
@@ -13030,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="BC55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD55">
         <v>0</v>
@@ -13263,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="BD56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BE56">
         <v>0</v>
@@ -13496,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="BE57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BF57">
         <v>0</v>
@@ -13729,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="BF58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BG58">
         <v>0</v>
@@ -13962,7 +13962,7 @@
         <v>0</v>
       </c>
       <c r="BG59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BH59">
         <v>0</v>
@@ -14195,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="BH60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BI60">
         <v>0</v>
@@ -14428,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="BI61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BJ61">
         <v>0</v>
@@ -14661,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="BJ62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BK62">
         <v>0</v>
@@ -14894,7 +14894,7 @@
         <v>0</v>
       </c>
       <c r="BK63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BL63">
         <v>0</v>
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="BL64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BM64">
         <v>0</v>
@@ -15360,7 +15360,7 @@
         <v>0</v>
       </c>
       <c r="BM65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BN65">
         <v>0</v>
@@ -15593,7 +15593,7 @@
         <v>0</v>
       </c>
       <c r="BN66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BO66">
         <v>0</v>
@@ -15826,7 +15826,7 @@
         <v>0</v>
       </c>
       <c r="BO67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BP67">
         <v>0</v>
@@ -16059,7 +16059,7 @@
         <v>0</v>
       </c>
       <c r="BP68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BQ68">
         <v>0</v>
@@ -16292,7 +16292,7 @@
         <v>0</v>
       </c>
       <c r="BQ69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR69">
         <v>0</v>
@@ -16525,7 +16525,7 @@
         <v>0</v>
       </c>
       <c r="BR70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BS70">
         <v>0</v>
@@ -16758,7 +16758,7 @@
         <v>0</v>
       </c>
       <c r="BS71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BT71">
         <v>0</v>
@@ -16991,7 +16991,7 @@
         <v>0</v>
       </c>
       <c r="BT72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU72">
         <v>0</v>
@@ -17224,7 +17224,7 @@
         <v>0</v>
       </c>
       <c r="BU73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BV73">
         <v>0</v>
@@ -17457,7 +17457,7 @@
         <v>0</v>
       </c>
       <c r="BV74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BW74">
         <v>0</v>
@@ -17690,7 +17690,7 @@
         <v>0</v>
       </c>
       <c r="BW75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BX75">
         <v>0</v>
@@ -17923,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="BX76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
